--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2523.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2523.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.572729436859092</v>
+        <v>2.295792818069458</v>
       </c>
       <c r="B1">
-        <v>3.619716056800247</v>
+        <v>2.478166341781616</v>
       </c>
       <c r="C1">
-        <v>3.429369613480946</v>
+        <v>2.515751600265503</v>
       </c>
       <c r="D1">
-        <v>1.848440079802603</v>
+        <v>3.217341661453247</v>
       </c>
       <c r="E1">
-        <v>1.864183037078443</v>
+        <v>2.404553651809692</v>
       </c>
     </row>
   </sheetData>
